--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,10 +476,10 @@
     <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Depends</t>
   </si>
@@ -90,35 +90,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ERROR_MESSAGE': '有新版本，请检查更新！','ERROR_CODE': '10006'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ERROR_MESSAGE': '有新版本，请检查更新！','ERROR_CODE': '10006'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/CobraUser/Login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE': '有新版本，请检查更新！'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE': ''}</t>
+    <t>/api/CobraUser/Login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,11 +483,11 @@
     <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="183.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -530,16 +538,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
@@ -559,22 +570,22 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Depends</t>
   </si>
@@ -30,43 +30,63 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Purpose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>API_Purpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response_Type</t>
+    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -74,59 +94,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE': '有新版本，请检查更新！','ERROR_CODE': '10006'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE': '有新版本，请检查更新！','ERROR_CODE': '10006'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/CobraUser/Login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/CobraUser/Login</t>
+    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':None,'NAME':'魏双双' }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,34 +466,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -532,63 +504,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'Sign': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,7 +94,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':None,'NAME':'魏双双' }</t>
+    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':None,'NAME':'魏双双1' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,22 +510,22 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Depends</t>
   </si>
@@ -94,11 +94,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':None,'NAME':'魏双双1' }</t>
+    <t>创建客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/create</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ERROR_MESSAGE':None }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':'None','NAME':'刘云' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","DEVICE_VERSION":"112","FORMAT":"json","ID_NO":"410602197404024222","MEDIA_DATA":[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],"MOBILE":"15502168672","NAME":"媛敬竹","TIMESTAMP":"$tm$","U_ID":"shuangshuangwei","VERSION":"1.0","SIGN":"$sign$"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -160,6 +176,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,15 +538,44 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Depends</t>
   </si>
@@ -106,15 +106,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'ERROR_MESSAGE':None }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':'None','NAME':'刘云' }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"APP_KEY":"10001","DEVICE_VERSION":"112","FORMAT":"json","ID_NO":"410602197404024222","MEDIA_DATA":[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],"MOBILE":"15502168672","NAME":"媛敬竹","TIMESTAMP":"$tm$","U_ID":"shuangshuangwei","VERSION":"1.0","SIGN":"$sign$"}</t>
+    <t>{'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","DEVICE_VERSION":"112","FORMAT":"json","ID_NO":"$idcd$",'MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],"MOBILE":"15502168672","NAME":"$uname$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"1.0","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ACCOUNT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,11 +544,14 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
@@ -573,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Depends</t>
   </si>
@@ -31,102 +31,257 @@
   </si>
   <si>
     <t>Num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API_Purpose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Request_Url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Request_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Header</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'RESPONSE_STATUS': 'OK',
+'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraProduct/GetConllectionByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetConllectionByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/preappmain/create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraCrDataDic/getareacodeconllection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getareacodeconllection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,USER_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","USER_ID":'$ID$',"FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"ANDROID", 'SIGN': '$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'RESPONSE_STATUS': 'OK','ERROR_MESSAGE':'None','NAME':'刘云' }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE':'None' }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"APP_KEY":"10001","DEVICE_VERSION":"112","FORMAT":"json","ID_NO":"$idcd$",'MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],"MOBILE":"15502168672","NAME":"$uname$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"1.0","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ACCOUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"DEVICE_VERSION":"$deviceversion$","APP_KEY":"10001","VERSION":"$veron$","TIMESTAMP":"$tm$","U_ID":"ANDROID","FORMAT":"json", 'SIGN': '$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{'MEDIA':'','MEDIA_TYPE':1},{'MEDIA':'','MEDIA_TYPE':2}],'MOBILE':'15502168672','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","APP_KEY":"10001","VERSION":"$veron$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","FORMAT":"json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraAd/GetEnableConllection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetEnableConllection</t>
+  </si>
+  <si>
+    <t>{'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ERROR_MESSAGE':'None' ,
+'ERROR_CODE': 'None',
+'RESULT':'True'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/notification/getnotreadcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getnotreadcount</t>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","SALES_ACCOUNT":"$USER_ACCOUNT$","APP_KEY":"10001","VERSION":"$veron$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","FORMAT":"json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/getdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdetail</t>
+  </si>
+  <si>
+    <t>PRE_APP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None',
+'MESSAGE':'操作成功' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/getsaveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getsaveproduct</t>
+  </si>
+  <si>
+    <t>/api/preappmain/getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '201',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +290,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13.5"/>
+      <sz val="10"/>
       <color rgb="FFCC7832"/>
       <name val="Courier"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -169,20 +339,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,130 +651,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="183.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="63.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Depends</t>
   </si>
@@ -208,17 +208,7 @@
     <t>getdetail</t>
   </si>
   <si>
-    <t>PRE_APP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status_code': '200',
-'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,20 +250,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'status_code': '201',
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_APP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
 'ERROR_CODE': 'None',
 'ERROR_MESSAGE':'None' }</t>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None',
+'PRE_APP_CODE':'$PRE_APP_CODE$' }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,16 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="1" hidden="1" customWidth="1"/>
@@ -886,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>10</v>
@@ -900,13 +904,13 @@
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
@@ -915,14 +919,14 @@
         <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>11</v>
@@ -930,7 +934,7 @@
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -946,27 +950,27 @@
         <v>10</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
@@ -976,13 +980,13 @@
         <v>10</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -990,13 +994,13 @@
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
@@ -1006,21 +1010,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Depends</t>
   </si>
@@ -278,6 +278,10 @@
 'ERROR_CODE': 'None',
 'ERROR_MESSAGE':'None',
 'PRE_APP_CODE':'$PRE_APP_CODE$' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,7 +809,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -836,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -867,7 +871,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -899,7 +903,7 @@
         <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -929,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -959,7 +963,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -989,7 +993,7 @@
         <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1019,7 +1023,7 @@
         <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Depends</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +278,18 @@
   </si>
   <si>
     <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -725,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
@@ -737,16 +745,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>11</v>
@@ -754,13 +762,13 @@
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -769,14 +777,17 @@
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="11"/>
+      <c r="I3" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>11</v>
@@ -784,13 +795,13 @@
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>13</v>
@@ -799,28 +810,28 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -830,28 +841,28 @@
         <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -861,28 +872,28 @@
         <v>10</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
@@ -891,30 +902,30 @@
         <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
@@ -923,28 +934,28 @@
         <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
@@ -954,27 +965,27 @@
         <v>10</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
@@ -984,27 +995,27 @@
         <v>10</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
@@ -1014,16 +1025,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
+    <sheet name="个金" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Depends</t>
   </si>
@@ -62,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,11 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'RESPONSE_STATUS': 'OK',
-'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/CobraProduct/GetConllectionByUserId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/preappmain/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,15 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID,USER_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{'MEDIA':'','MEDIA_TYPE':1},{'MEDIA':'','MEDIA_TYPE':2}],'MOBILE':'15502168672','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","APP_KEY":"10001","VERSION":"$veron$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","FORMAT":"json"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,17 +136,6 @@
   </si>
   <si>
     <t>GetEnableConllection</t>
-  </si>
-  <si>
-    <t>{'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ERROR_MESSAGE':'None' ,
-'ERROR_CODE': 'None',
-'RESULT':'True'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/notification/getnotreadcount</t>
@@ -270,6 +234,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/CobraUser/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savecustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,USER_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{'MEDIA':'','MEDIA_TYPE':1},{'MEDIA':'','MEDIA_TYPE':2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","CITY":"武汉","DEVICE_VERSION":"$deviceversion$","EDUCATION":"educationA","EMAIL":"$email$","FORMAT":"json","MARRAGE":"marrageCouple","MOBILE1":"$account$","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CONTACT":[{"CONTACT_PROPERTY":"CONTACT_RELATIVE1","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelCon"},{"CONTACT_PROPERTY":"CONTACT_RELATIVE2","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelPar"},{"COM_DEPT":"金融部","COM_POSITION":"主管","CONTACT_PROPERTY":"CONTACT_JOB_CERT","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelMat"}],"PRE_APP_LOAN":{"LOAN_PURPOSE":"LoanPurposeBuy"},"RESIDENT_ADDRESS":"$adress$","RESIDENT_CITY":"420100","RESIDENT_PROVINCE":"420000","SAME_AS_RESIDENTIAL_ADDRESS":"Y","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login,/api/preappmain/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+"MESSAGE":"保存成功",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/savecustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '201',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.5.33:8080/nauth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'username':'shuangshuangwei','password':'qwer@123'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/x-www-form-urlencoded'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code':'200','登录成功信息':'您好, 魏双双' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","STATE":"SUBMIT","STEP":"CUSTOMER","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","CHANGE_PRODUCT_FLAG":"Y","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CUSTOMER":{"INCOME_MONTHLY_FROM_JOB":"30000.00"},"PRE_APP_JOB":{"COM_ADDRESS":"$adress$","COM_CITY":"420100","COM_NAME":"$cpname$","COM_POSITION":"comPositionA","COM_PROVINCE":"420000","COM_TEL_NO":"$fphone$","COM_TYPE":"comTypeBB","DATE_JOIN":"2013/06/21 10:00:00","EMAIL":"$email$"},"PRE_APP_LOAN":{"APPLY_AMT":"30000","TERMS":18},"PRODUCT_CODE":"productCoderapid-3-1_19-18","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{'status_code': '200',
 'ERROR_CODE': 'None',
 'ERROR_MESSAGE':'None',
@@ -277,19 +361,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>{'status_code': '200',
+'ERROR_MESSAGE':'None' ,
+'ERROR_CODE': 'None',
+'RESULT':'True'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'RESPONSE_STATUS': 'OK',
+'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +421,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +447,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -387,9 +483,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,7 +790,7 @@
     <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="62.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.375" style="1" customWidth="1"/>
@@ -701,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -730,316 +837,434 @@
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" s="11"/>
+      <c r="I4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" s="12"/>
+      <c r="I5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12"/>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1047,4 +1272,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="J2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
     <sheet name="个金" sheetId="2" r:id="rId2"/>
+    <sheet name="UFO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>Depends</t>
   </si>
@@ -107,18 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","USER_ID":'$ID$',"FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"ANDROID", 'SIGN': '$sign$'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,18 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/preappmain/getdetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +154,6 @@
   </si>
   <si>
     <t>continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,24 +179,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'status_code': '200',
 'ERROR_CODE': 'None',
 'ERROR_MESSAGE':'None'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRE_APP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'status_code': '200',
 'ERROR_CODE': 'None',
 'ERROR_MESSAGE':'None' }</t>
@@ -238,19 +195,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">11 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>savecustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,USER_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{'MEDIA':'','MEDIA_TYPE':1},{'MEDIA':'','MEDIA_TYPE':2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -301,27 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/preappmain/saveproduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status_code': '201',
-'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://172.16.5.33:8080/nauth/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,14 +267,6 @@
   </si>
   <si>
     <t>{'status_code':'200','登录成功信息':'您好, 魏双双' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"APP_KEY":"10001","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","STATE":"SUBMIT","STEP":"CUSTOMER","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"APP_KEY":"10001","CHANGE_PRODUCT_FLAG":"Y","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CUSTOMER":{"INCOME_MONTHLY_FROM_JOB":"30000.00"},"PRE_APP_JOB":{"COM_ADDRESS":"$adress$","COM_CITY":"420100","COM_NAME":"$cpname$","COM_POSITION":"comPositionA","COM_PROVINCE":"420000","COM_TEL_NO":"$fphone$","COM_TYPE":"comTypeBB","DATE_JOIN":"2013/06/21 10:00:00","EMAIL":"$email$"},"PRE_APP_LOAN":{"APPLY_AMT":"30000","TERMS":18},"PRODUCT_CODE":"productCoderapid-3-1_19-18","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,6 +293,263 @@
     <t>{'status_code': '200',
 'RESPONSE_STATUS': 'OK',
 'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","CHANGE_PRODUCT_FLAG":"Y","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CUSTOMER":{"INCOME_MONTHLY_FROM_JOB":"30000.00"},"PRE_APP_JOB":{"COM_ADDRESS":"$adress$","COM_CITY":"420100","COM_NAME":"$cpname$","COM_POSITION":"comPositionA","COM_PROVINCE":"420000","COM_TEL_NO":"$fphone$","COM_TYPE":"comTypeBB","DATE_JOIN":"2013/06/21 10:00:00","EMAIL":"$email$"},"PRE_APP_LOAN":{"APPLY_AMT":"30000","TERMS":18},"PRODUCT_CODE":"productCoderapid-3-1_19-18","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","STATE":"SUBMIT","STEP":"CUSTOMER","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_APP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","STATE":"SUBMIT","STEP":"PRODUCT","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer,/api/preappmain/saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'TOTAL_COUNT': "276",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+"TOTAL_COUNT":"18",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷后列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/PreAppMain/getcontractcollection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","USER_ID":"$ID$","PAGE_SIZE":10,"FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PAGE_INDEX":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","USER_ID":'$ID$',"FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"ANDROID", 'SIGN': '$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/PreAppMain/Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/PreAppMain/Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,USER_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"PAGE_SIZE":"10","STATUS":"1","PAGE_INDEX":"1","USER_ACCOUNT":"$USER_ACCOUNT$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预申请列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+"RESULT":"True",
+"MESSAGE":"保存成功",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","PAGE_SIZE":10,"STATUS":2,"PAGE_INDEX":1,"USER_ACCOUNT":"$USER_ACCOUNT$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/cobrafeedback/addorupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+"MESSAGE":"提交成功",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>个金登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ufoapi05.quarkfinance.com/api/Product/QueryRecommendProductCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFO首页新手计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","CONTENT":"这里是反馈意见","FORMAT":"json","APP_KEY":"10001","SUBMITTER_ID":"$ID$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Format":"Json","DeviceVersion":125,"SIGN":"$sign$","Id":0,"Version":"2.4","AppKey":"10001","Client":100000002,"Timestamp":"$tm$"}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code':'200',
+'ResponseStatus': 'OK',
+'ErrorCode':'0',
+'Name': '新手体验计划',
+'Introduction':'立即开启财富增值之路'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,15 +603,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -446,17 +625,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -469,13 +660,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -486,13 +671,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -774,497 +989,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="J18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="L18" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="D19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1295,75 +1724,75 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="J2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1374,4 +1803,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>Depends</t>
   </si>
@@ -196,10 +196,6 @@
   </si>
   <si>
     <t>savecustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,6 +546,21 @@
 'ErrorCode':'0',
 'Name': '新手体验计划',
 'Introduction':'立即开启财富增值之路'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None',
+"NOTIFICATION_TYPE":"1" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1063,7 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>18</v>
@@ -1071,158 +1082,158 @@
         <v>22</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="L3" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>17</v>
@@ -1238,25 +1249,25 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -1276,21 +1287,21 @@
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>26</v>
@@ -1310,21 +1321,21 @@
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>28</v>
@@ -1344,27 +1355,27 @@
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>12</v>
@@ -1374,27 +1385,27 @@
         <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>34</v>
@@ -1414,7 +1425,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>10</v>
@@ -1423,12 +1434,12 @@
         <v>35</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>31</v>
@@ -1448,7 +1459,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>10</v>
@@ -1457,12 +1468,12 @@
         <v>40</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>37</v>
@@ -1482,21 +1493,21 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>39</v>
@@ -1516,7 +1527,7 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>10</v>
@@ -1525,18 +1536,18 @@
         <v>41</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>12</v>
@@ -1546,31 +1557,31 @@
         <v>10</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="L16" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>12</v>
@@ -1580,11 +1591,11 @@
         <v>10</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>10</v>
@@ -1593,18 +1604,18 @@
         <v>41</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>12</v>
@@ -1614,86 +1625,86 @@
         <v>10</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="20"/>
       <c r="J20" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1719,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1767,32 +1778,32 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1809,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1864,13 +1875,13 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>12</v>
@@ -1880,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1888,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>103</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>105</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>41</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>119</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>62</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>62</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>128</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>61</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>41</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
         <v>65</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
@@ -1672,7 +1672,7 @@
         <v>115</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>96</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1803,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1902,7 @@
         <v>126</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestData/Qone.xlsx
+++ b/TestCase/TestData/Qone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="131">
   <si>
     <t>Depends</t>
   </si>
@@ -289,10 +289,6 @@
     <t>{'status_code': '200',
 'RESPONSE_STATUS': 'OK',
 'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,6 +557,14 @@
   </si>
   <si>
     <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1067,7 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>18</v>
@@ -1082,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="15" t="s">
@@ -1092,38 +1096,38 @@
         <v>63</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>129</v>
@@ -1131,33 +1135,33 @@
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>129</v>
@@ -1165,30 +1169,30 @@
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>41</v>
@@ -1199,33 +1203,33 @@
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>129</v>
@@ -1233,7 +1237,7 @@
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>17</v>
@@ -1249,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
@@ -1267,7 +1271,7 @@
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -1301,7 +1305,7 @@
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>26</v>
@@ -1335,7 +1339,7 @@
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>28</v>
@@ -1361,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>129</v>
@@ -1369,7 +1373,7 @@
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>19</v>
@@ -1385,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>45</v>
@@ -1400,12 +1404,12 @@
         <v>61</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>34</v>
@@ -1439,7 +1443,7 @@
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>31</v>
@@ -1473,7 +1477,7 @@
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>37</v>
@@ -1507,7 +1511,7 @@
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>39</v>
@@ -1541,7 +1545,7 @@
     </row>
     <row r="16" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>43</v>
@@ -1575,7 +1579,7 @@
     </row>
     <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>51</v>
@@ -1591,11 +1595,11 @@
         <v>10</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>10</v>
@@ -1609,13 +1613,13 @@
     </row>
     <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>12</v>
@@ -1625,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="16" t="s">
@@ -1635,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>129</v>
@@ -1643,33 +1647,33 @@
     </row>
     <row r="19" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>129</v>
@@ -1677,31 +1681,31 @@
     </row>
     <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="20"/>
       <c r="J20" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>129</v>
@@ -1718,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>54</v>
@@ -1821,7 +1825,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1875,13 +1879,13 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>12</v>
@@ -1891,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1899,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
